--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4821428571428572</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07327008211414886</v>
+        <v>0.1072275101046954</v>
       </c>
       <c r="J2" t="n">
-        <v>914.6011859912714</v>
+        <v>1436.662485157521</v>
       </c>
       <c r="K2" t="n">
-        <v>1095463.184763022</v>
+        <v>2959573.384108365</v>
       </c>
       <c r="L2" t="n">
-        <v>1046.64377166399</v>
+        <v>1720.341066215756</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7981191651994495</v>
+        <v>0.454585828398662</v>
       </c>
     </row>
   </sheetData>
